--- a/medicine/Enfance/Adèle_Tariel/Adèle_Tariel.xlsx
+++ b/medicine/Enfance/Adèle_Tariel/Adèle_Tariel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ad%C3%A8le_Tariel</t>
+          <t>Adèle_Tariel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adèle Tariel est née à Angers en 1979. Elle est journaliste pour la presse jeunesse et autrice de littérature jeunesse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ad%C3%A8le_Tariel</t>
+          <t>Adèle_Tariel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle fait des études de communication à Angers puis à Rennes, jusqu'à la maîtrise, avant d'intégrer l'École supérieure de journalisme de Lille.
-De 2002 à 2007, elle travaille pour la presse régionale avant d'entrer chez Playbac presse. À partir de 2010, elle écrit des livres jeunesse[2] pour sensibiliser les enfants au monde dans lequel ils vivent. Elle est attachée à la qualité littéraire et graphique des ouvrages qu'elle écrit. Elle aborde des sujets sociétaux comme l'égalité entre les filles et les garçons, la  société de consommation ou l'écologie. Elle traite aussi de sujets d'actualité comme la télé-réalité. Elle collabore avec l'illustrateur Jerôme Peyrat[3],[4]. En 2016, son ouvrage Mon papi peuplier a été sélectionné pour le prix Michel Tournier[5].
-Elle habite en région parisienne[6].
+De 2002 à 2007, elle travaille pour la presse régionale avant d'entrer chez Playbac presse. À partir de 2010, elle écrit des livres jeunesse pour sensibiliser les enfants au monde dans lequel ils vivent. Elle est attachée à la qualité littéraire et graphique des ouvrages qu'elle écrit. Elle aborde des sujets sociétaux comme l'égalité entre les filles et les garçons, la  société de consommation ou l'écologie. Elle traite aussi de sujets d'actualité comme la télé-réalité. Elle collabore avec l'illustrateur Jerôme Peyrat,. En 2016, son ouvrage Mon papi peuplier a été sélectionné pour le prix Michel Tournier.
+Elle habite en région parisienne.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ad%C3%A8le_Tariel</t>
+          <t>Adèle_Tariel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La révolte des cocottes, illustré par Céline Riffard, éditions Talents hauts (2011)
 C'est dans la poche !, ill. Jérôme Peyrat, éditions Talents hauts (2011)
